--- a/THUHOI/6.Huong Tan/1.LIG_Huong Hoa 1/4. Ngan Lo Mo Rong/2.NGAN LO MO RONG (DOT 2).xlsx
+++ b/THUHOI/6.Huong Tan/1.LIG_Huong Hoa 1/4. Ngan Lo Mo Rong/2.NGAN LO MO RONG (DOT 2).xlsx
@@ -103,6 +103,7 @@
     <definedName name="PHOIGCN">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">BQLRPH!$A$1:$M$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">TongHop!$A$1:$F$15</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">BQLRPH!$3:$5</definedName>
     <definedName name="QUYENSO" localSheetId="0">'[1]TANHOP - TC'!#REF!</definedName>
     <definedName name="QUYENSO">'[1]TANHOP - TC'!#REF!</definedName>
     <definedName name="smk" localSheetId="0">#REF!</definedName>
@@ -140,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t>STT</t>
   </si>
@@ -196,9 +197,6 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                               </t>
-  </si>
-  <si>
-    <t>Ngày     tháng     năm 2023</t>
   </si>
   <si>
     <t xml:space="preserve">                                                     </t>
@@ -288,30 +286,6 @@
 ĐỊA ĐIỂM: XÃ HƯỚNG TÂN - HUYỆN HƯỚNG HÓA - QUẢNG TRỊ</t>
   </si>
   <si>
-    <t>BĐ015756</t>
-  </si>
-  <si>
-    <t>BĐ015757</t>
-  </si>
-  <si>
-    <t>BĐ015758</t>
-  </si>
-  <si>
-    <t>BĐ015759</t>
-  </si>
-  <si>
-    <t>BĐ015760</t>
-  </si>
-  <si>
-    <t>BĐ015761</t>
-  </si>
-  <si>
-    <t>BĐ015762</t>
-  </si>
-  <si>
-    <t>BĐ015763</t>
-  </si>
-  <si>
     <t>215/1</t>
   </si>
   <si>
@@ -360,13 +334,19 @@
     <t>29/1</t>
   </si>
   <si>
-    <t>Hồ Văn Khanh đang canh tác</t>
-  </si>
-  <si>
     <t>Hồ Văn Huôi đang canh tác</t>
   </si>
   <si>
-    <t>Hồ Văn Khuôn đang canh tác</t>
+    <t>Hồ Văn Khanh đang canh tác trồng lúa</t>
+  </si>
+  <si>
+    <t>Hồ Văn Huôi đang canh tác trồng lúa</t>
+  </si>
+  <si>
+    <t>Hồ Văn Khuôn đang canh tác trồng lúa</t>
+  </si>
+  <si>
+    <t>Ngày     tháng     năm 2024</t>
   </si>
 </sst>
 </file>
@@ -816,7 +796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -890,9 +870,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -976,6 +953,36 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1012,33 +1019,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1069,8 +1049,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2117,8 +2103,8 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,786 +2120,786 @@
     <col min="10" max="10" width="10.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="43.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="43.42578125" style="3" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+    </row>
+    <row r="2" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+    </row>
+    <row r="3" spans="1:13" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="79"/>
+    </row>
+    <row r="5" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="79"/>
+    </row>
+    <row r="6" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <v>1</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="47">
+        <v>1</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-    </row>
-    <row r="2" spans="1:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-    </row>
-    <row r="3" spans="1:13" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="70"/>
-    </row>
-    <row r="5" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="70"/>
-    </row>
-    <row r="6" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46">
-        <v>1</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="48">
-        <v>1</v>
-      </c>
-      <c r="D6" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="48">
         <v>461</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="49">
         <f>SUM(I6:J6)</f>
         <v>461</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="50">
         <v>461</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49">
+      <c r="J6" s="48"/>
+      <c r="K6" s="48">
         <f>F6-H6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="52" t="s">
-        <v>70</v>
+      <c r="L6" s="48"/>
+      <c r="M6" s="51" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46">
+      <c r="A7" s="45">
         <v>2</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="47">
         <v>1</v>
       </c>
-      <c r="D7" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="48">
         <v>554</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="49">
         <f t="shared" ref="H7:H22" si="0">SUM(I7:J7)</f>
         <v>554</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="50">
         <v>554</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49">
+      <c r="J7" s="48"/>
+      <c r="K7" s="48">
         <f t="shared" ref="K7:K22" si="1">F7-H7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="52" t="s">
-        <v>70</v>
+      <c r="L7" s="48"/>
+      <c r="M7" s="51" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46">
+      <c r="A8" s="45">
         <v>3</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="47">
         <v>1</v>
       </c>
-      <c r="D8" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="49" t="s">
+      <c r="D8" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="48">
         <v>183</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="49">
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="50">
         <v>183</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49">
+      <c r="J8" s="48"/>
+      <c r="K8" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="52" t="s">
-        <v>70</v>
+      <c r="L8" s="48"/>
+      <c r="M8" s="51" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46">
+      <c r="A9" s="45">
         <v>4</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="47">
         <v>1</v>
       </c>
-      <c r="D9" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="49" t="s">
+      <c r="D9" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="48">
         <v>22</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="49">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I9" s="51">
+      <c r="I9" s="50">
         <v>22</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49">
+      <c r="J9" s="48"/>
+      <c r="K9" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="52" t="s">
-        <v>71</v>
+      <c r="L9" s="48"/>
+      <c r="M9" s="51" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46">
+      <c r="A10" s="45">
         <v>5</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="47">
         <v>1</v>
       </c>
-      <c r="D10" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="49" t="s">
+      <c r="D10" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="48">
         <v>17</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="49">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="50">
         <v>17</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49">
+      <c r="J10" s="48"/>
+      <c r="K10" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="52" t="s">
-        <v>72</v>
+      <c r="L10" s="48"/>
+      <c r="M10" s="51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46">
+      <c r="A11" s="45">
         <v>6</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="47">
         <v>1</v>
       </c>
-      <c r="D11" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="49" t="s">
+      <c r="D11" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="48">
         <v>401</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="49">
         <f t="shared" si="0"/>
         <v>401</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="50">
         <v>401</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49">
+      <c r="J11" s="48"/>
+      <c r="K11" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="52" t="s">
-        <v>71</v>
+      <c r="L11" s="48"/>
+      <c r="M11" s="51" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46">
+      <c r="A12" s="45">
         <v>7</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="47">
         <v>1</v>
       </c>
-      <c r="D12" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="49" t="s">
+      <c r="D12" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="48">
         <v>700</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="49">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="I12" s="51">
+      <c r="I12" s="50">
         <v>700</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49">
+      <c r="J12" s="48"/>
+      <c r="K12" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="52" t="s">
-        <v>72</v>
+      <c r="L12" s="48"/>
+      <c r="M12" s="51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46">
+      <c r="A13" s="45">
         <v>8</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="47">
         <v>1</v>
       </c>
-      <c r="D13" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="49" t="s">
+      <c r="D13" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="48">
         <v>654</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="49">
         <f t="shared" si="0"/>
         <v>654</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="50">
         <v>654</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49">
+      <c r="J13" s="48"/>
+      <c r="K13" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="52" t="s">
-        <v>72</v>
+      <c r="L13" s="48"/>
+      <c r="M13" s="51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46">
+      <c r="A14" s="45">
         <v>9</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="47">
         <v>1</v>
       </c>
-      <c r="D14" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="49">
+      <c r="D14" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="48">
         <v>469</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="49">
         <f t="shared" si="0"/>
         <v>469</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="50">
         <v>469</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49">
+      <c r="J14" s="48"/>
+      <c r="K14" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="52" t="s">
-        <v>70</v>
+      <c r="L14" s="48"/>
+      <c r="M14" s="51" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
+      <c r="A15" s="45">
         <v>10</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="47">
         <v>1</v>
       </c>
-      <c r="D15" s="90" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="49">
+      <c r="D15" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="48">
         <v>92</v>
       </c>
-      <c r="G15" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="50">
+      <c r="G15" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="49">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="I15" s="51">
+      <c r="I15" s="50">
         <v>92</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49">
+      <c r="J15" s="48"/>
+      <c r="K15" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="52" t="s">
-        <v>71</v>
+      <c r="L15" s="48"/>
+      <c r="M15" s="51" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46">
+      <c r="A16" s="45">
         <v>11</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="47">
         <v>1</v>
       </c>
-      <c r="D16" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="49">
+      <c r="D16" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="48">
         <v>140</v>
       </c>
-      <c r="G16" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="50">
+      <c r="G16" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="49">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16" s="50">
         <v>140</v>
       </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49">
+      <c r="J16" s="48"/>
+      <c r="K16" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="49"/>
-      <c r="M16" s="52" t="s">
-        <v>71</v>
+      <c r="L16" s="48"/>
+      <c r="M16" s="51" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46">
+      <c r="A17" s="45">
         <v>12</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="47">
         <v>1</v>
       </c>
-      <c r="D17" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="49">
+      <c r="D17" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="48">
         <v>6</v>
       </c>
-      <c r="G17" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="50">
+      <c r="G17" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="49">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="50">
         <v>6</v>
       </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49">
+      <c r="J17" s="48"/>
+      <c r="K17" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="49"/>
-      <c r="M17" s="52" t="s">
-        <v>72</v>
+      <c r="L17" s="48"/>
+      <c r="M17" s="51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46">
+      <c r="A18" s="45">
         <v>13</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="47">
         <v>1</v>
       </c>
-      <c r="D18" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="49">
+      <c r="D18" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="48">
         <v>22</v>
       </c>
-      <c r="G18" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="50">
+      <c r="G18" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="49">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="50">
         <v>22</v>
       </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49">
+      <c r="J18" s="48"/>
+      <c r="K18" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="49"/>
-      <c r="M18" s="52" t="s">
-        <v>72</v>
+      <c r="L18" s="48"/>
+      <c r="M18" s="51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46">
+      <c r="A19" s="45">
         <v>14</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="47">
         <v>1</v>
       </c>
-      <c r="D19" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="49">
+      <c r="D19" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="48">
         <v>40</v>
       </c>
-      <c r="G19" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="50">
+      <c r="G19" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="49">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I19" s="51">
+      <c r="I19" s="50">
         <v>40</v>
       </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49">
+      <c r="J19" s="48"/>
+      <c r="K19" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L19" s="49"/>
-      <c r="M19" s="52"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="51"/>
     </row>
     <row r="20" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46">
+      <c r="A20" s="45">
         <v>15</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="47">
         <v>1</v>
       </c>
-      <c r="D20" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="49">
+      <c r="D20" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="48">
         <v>482</v>
       </c>
-      <c r="G20" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="50">
+      <c r="G20" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="49">
         <f t="shared" si="0"/>
         <v>482</v>
       </c>
-      <c r="I20" s="51">
+      <c r="I20" s="50">
         <v>482</v>
       </c>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49">
+      <c r="J20" s="48"/>
+      <c r="K20" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L20" s="49"/>
-      <c r="M20" s="52" t="s">
-        <v>71</v>
+      <c r="L20" s="48"/>
+      <c r="M20" s="51" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46">
+      <c r="A21" s="45">
         <v>16</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="47">
         <v>1</v>
       </c>
-      <c r="D21" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="49">
+      <c r="D21" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="48">
         <v>22</v>
       </c>
-      <c r="G21" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="50">
+      <c r="G21" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="49">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I21" s="51">
+      <c r="I21" s="50">
         <v>22</v>
       </c>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49">
+      <c r="J21" s="48"/>
+      <c r="K21" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="52"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="51"/>
     </row>
     <row r="22" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46">
+      <c r="A22" s="45">
         <v>17</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="47">
         <v>1</v>
       </c>
-      <c r="D22" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="49">
+      <c r="D22" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="48">
         <v>25</v>
       </c>
-      <c r="G22" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="50">
+      <c r="G22" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="49">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="I22" s="51">
+      <c r="I22" s="50">
         <v>25</v>
       </c>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49">
+      <c r="J22" s="48"/>
+      <c r="K22" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L22" s="49"/>
-      <c r="M22" s="52"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="51"/>
     </row>
     <row r="23" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="58"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="57"/>
     </row>
     <row r="24" spans="1:13" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
@@ -2945,184 +2931,173 @@
         <v>0</v>
       </c>
       <c r="L24" s="26"/>
-      <c r="M24" s="27"/>
+      <c r="M24" s="90"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+    </row>
+    <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-    </row>
-    <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="B26" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+    </row>
+    <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+      <c r="B27" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-    </row>
-    <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="32"/>
-      <c r="B27" s="24" t="s">
+      <c r="C27" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="75" t="s">
+      <c r="K27" s="63"/>
+      <c r="L27" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75" t="s">
+      <c r="M27" s="63"/>
+    </row>
+    <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="91"/>
+    </row>
+    <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="91"/>
+    </row>
+    <row r="30" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="92"/>
+    </row>
+    <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="92"/>
+    </row>
+    <row r="32" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="36"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="92"/>
+    </row>
+    <row r="33" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="41"/>
+      <c r="B33" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="75"/>
-    </row>
-    <row r="28" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-    </row>
-    <row r="29" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-    </row>
-    <row r="30" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="39"/>
-    </row>
-    <row r="31" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-    </row>
-    <row r="32" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-    </row>
-    <row r="33" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43" t="s">
+      <c r="C33" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="72" t="s">
+      <c r="K33" s="60"/>
+      <c r="L33" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" s="72"/>
+      <c r="M33" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="B25:E25"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:A5"/>
@@ -3136,12 +3111,23 @@
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="M3:M5"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="B25:E25"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="12" max="12" man="1"/>
-    <brk id="22" max="12" man="1"/>
+    <brk id="21" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -3171,7 +3157,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -3181,7 +3167,7 @@
     </row>
     <row r="2" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="82"/>
       <c r="C2" s="82"/>
@@ -3194,19 +3180,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3214,10 +3200,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -3229,7 +3215,7 @@
     </row>
     <row r="5" spans="1:10" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="87"/>
       <c r="C5" s="87"/>
@@ -3258,7 +3244,7 @@
     </row>
     <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A7" s="88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="88"/>
       <c r="C7" s="88"/>
@@ -3268,7 +3254,7 @@
     </row>
     <row r="8" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A8" s="89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="89"/>
       <c r="C8" s="89"/>
@@ -3278,7 +3264,7 @@
     </row>
     <row r="9" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A9" s="89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="89"/>
       <c r="C9" s="89"/>
@@ -3288,7 +3274,7 @@
     </row>
     <row r="10" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A10" s="83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="83"/>
       <c r="C10" s="83"/>
@@ -3330,7 +3316,7 @@
     </row>
     <row r="15" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A15" s="85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
